--- a/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
+++ b/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\ROBOS\robo_bx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF23D2A-9800-45B8-B4E8-546CE867249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B07F7F-E8B3-4B12-ADB1-3D2219C23792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="580">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -1757,6 +1757,12 @@
   </si>
   <si>
     <t>ICMS, PISCOFINS</t>
+  </si>
+  <si>
+    <t>ICMS, PISCOFINS, ECD</t>
+  </si>
+  <si>
+    <t>ECD</t>
   </si>
 </sst>
 </file>
@@ -2228,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3148,7 +3154,7 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G36" t="s">
         <v>346</v>
@@ -3175,7 +3181,7 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G37" t="s">
         <v>348</v>
@@ -3202,7 +3208,7 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G38" t="s">
         <v>350</v>
@@ -3254,7 +3260,7 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G40" t="s">
         <v>353</v>
@@ -3385,7 +3391,7 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G45" t="s">
         <v>362</v>
@@ -3412,7 +3418,7 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G46" t="s">
         <v>364</v>
@@ -3437,7 +3443,7 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G47" t="s">
         <v>365</v>
@@ -3464,7 +3470,7 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L48" t="s">
         <v>451</v>
@@ -3485,7 +3491,7 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L49" t="s">
         <v>453</v>
@@ -3506,7 +3512,7 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L50" t="s">
         <v>455</v>
@@ -3567,10 +3573,10 @@
       <c r="B53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="19"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="19" t="s">
+        <v>579</v>
+      </c>
       <c r="L53" t="s">
         <v>461</v>
       </c>

--- a/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
+++ b/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B07F7F-E8B3-4B12-ADB1-3D2219C23792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873D5797-1DE3-4807-8CC6-E0CFBBF55C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="576">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -409,12 +409,6 @@
     <t>08403578000109</t>
   </si>
   <si>
-    <t>COMPARE_COMERCIAL_PARATY</t>
-  </si>
-  <si>
-    <t>70.223.748/0001-39</t>
-  </si>
-  <si>
     <t>CONFECCOES_DIMARMAY</t>
   </si>
   <si>
@@ -1756,13 +1750,7 @@
     <t>COMPLETO</t>
   </si>
   <si>
-    <t>ICMS, PISCOFINS</t>
-  </si>
-  <si>
     <t>ICMS, PISCOFINS, ECD</t>
-  </si>
-  <si>
-    <t>ECD</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,18 +2241,18 @@
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="L1" s="26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
@@ -2312,22 +2300,22 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -2340,22 +2328,22 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N4" s="10"/>
     </row>
@@ -2371,19 +2359,19 @@
       </c>
       <c r="D5" s="19"/>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -2396,22 +2384,22 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -2427,19 +2415,19 @@
       </c>
       <c r="D7" s="19"/>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -2455,19 +2443,19 @@
       </c>
       <c r="D8" s="19"/>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -2480,22 +2468,22 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -2511,16 +2499,16 @@
       </c>
       <c r="D10" s="19"/>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="10"/>
@@ -2534,19 +2522,19 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="10"/>
@@ -2560,19 +2548,19 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -2585,19 +2573,19 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -2610,19 +2598,19 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N14" s="10"/>
     </row>
@@ -2635,19 +2623,19 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N15" s="10"/>
     </row>
@@ -2660,19 +2648,19 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N16" s="10"/>
     </row>
@@ -2688,13 +2676,13 @@
       </c>
       <c r="D17" s="19"/>
       <c r="G17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>32</v>
@@ -2713,16 +2701,16 @@
       </c>
       <c r="D18" s="19"/>
       <c r="G18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N18" s="10"/>
     </row>
@@ -2738,16 +2726,16 @@
       </c>
       <c r="D19" s="19"/>
       <c r="G19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -2763,16 +2751,16 @@
       </c>
       <c r="D20" s="19"/>
       <c r="G20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N20" s="10"/>
     </row>
@@ -2788,16 +2776,16 @@
       </c>
       <c r="D21" s="19"/>
       <c r="G21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N21" s="10"/>
     </row>
@@ -2813,16 +2801,16 @@
       </c>
       <c r="D22" s="19"/>
       <c r="G22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N22" s="10"/>
     </row>
@@ -2838,16 +2826,16 @@
       </c>
       <c r="D23" s="19"/>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -2860,19 +2848,19 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N24" s="10"/>
     </row>
@@ -2885,19 +2873,19 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -2910,19 +2898,19 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N26" s="10"/>
     </row>
@@ -2935,17 +2923,17 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H27" s="5"/>
       <c r="L27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N27" s="10"/>
     </row>
@@ -2961,16 +2949,16 @@
       </c>
       <c r="D28" s="19"/>
       <c r="G28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -2983,17 +2971,17 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H29" s="5"/>
       <c r="L29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -3009,16 +2997,16 @@
       </c>
       <c r="D30" s="19"/>
       <c r="G30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -3031,16 +3019,16 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="10"/>
@@ -3054,19 +3042,19 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -3082,16 +3070,16 @@
       </c>
       <c r="D33" s="19"/>
       <c r="G33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -3107,16 +3095,16 @@
       </c>
       <c r="D34" s="19"/>
       <c r="G34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -3129,19 +3117,19 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -3154,22 +3142,22 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3181,19 +3169,19 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G37" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N37" s="20" t="s">
         <v>33</v>
@@ -3208,17 +3196,17 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H38" s="5"/>
       <c r="L38" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N38" s="20" t="s">
         <v>33</v>
@@ -3236,19 +3224,19 @@
       </c>
       <c r="D39" s="19"/>
       <c r="G39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3260,19 +3248,19 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N40" s="20" t="s">
         <v>33</v>
@@ -3290,16 +3278,16 @@
       </c>
       <c r="D41" s="19"/>
       <c r="G41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>33</v>
@@ -3317,13 +3305,13 @@
       </c>
       <c r="D42" s="19"/>
       <c r="G42" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="20"/>
@@ -3340,19 +3328,19 @@
       </c>
       <c r="D43" s="19"/>
       <c r="G43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3367,16 +3355,16 @@
       </c>
       <c r="D44" s="19"/>
       <c r="G44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N44" s="20" t="s">
         <v>33</v>
@@ -3391,22 +3379,22 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N45" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3418,20 +3406,20 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G46" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H46" s="5"/>
       <c r="L46" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3443,22 +3431,22 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3470,13 +3458,13 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L48" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N48" s="20" t="s">
         <v>33</v>
@@ -3491,13 +3479,13 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N49" s="20" t="s">
         <v>33</v>
@@ -3512,16 +3500,16 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N50" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3536,13 +3524,13 @@
       </c>
       <c r="D51" s="19"/>
       <c r="L51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N51" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3557,10 +3545,10 @@
       </c>
       <c r="D52" s="19"/>
       <c r="L52" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>33</v>
@@ -3574,14 +3562,14 @@
         <v>107</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="19" t="s">
-        <v>579</v>
+      <c r="D53" s="18" t="s">
+        <v>575</v>
       </c>
       <c r="L53" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N53" s="20" t="s">
         <v>33</v>
@@ -3599,7 +3587,7 @@
       </c>
       <c r="D54" s="19"/>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="20" t="s">
@@ -3618,10 +3606,10 @@
       </c>
       <c r="D55" s="19"/>
       <c r="L55" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N55" s="20" t="s">
         <v>33</v>
@@ -3636,13 +3624,13 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L56" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>33</v>
@@ -3657,13 +3645,13 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>33</v>
@@ -3677,16 +3665,16 @@
         <v>118</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L58" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3701,13 +3689,13 @@
       </c>
       <c r="D59" s="21"/>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3722,13 +3710,13 @@
       </c>
       <c r="D60" s="21"/>
       <c r="L60" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3740,16 +3728,16 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L61" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3764,10 +3752,10 @@
       </c>
       <c r="D62" s="21"/>
       <c r="L62" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>33</v>
@@ -3782,13 +3770,13 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L63" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>33</v>
@@ -3801,18 +3789,18 @@
       <c r="B64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="18" t="s">
-        <v>577</v>
-      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="21"/>
       <c r="L64" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3822,18 +3810,18 @@
       <c r="B65" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="21"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="18" t="s">
+        <v>575</v>
+      </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3843,39 +3831,38 @@
       <c r="B66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="18" t="s">
-        <v>577</v>
-      </c>
+      <c r="C66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="21"/>
       <c r="L66" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="21"/>
       <c r="L67" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -3888,11 +3875,12 @@
       <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D68" s="21"/>
       <c r="L68" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>33</v>
@@ -3905,18 +3893,18 @@
       <c r="B69" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="21"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="18" t="s">
+        <v>575</v>
+      </c>
       <c r="L69" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -3926,18 +3914,18 @@
       <c r="B70" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="18" t="s">
-        <v>577</v>
-      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="21"/>
       <c r="L70" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -3947,15 +3935,15 @@
       <c r="B71" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="21"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="18" t="s">
+        <v>575</v>
+      </c>
       <c r="L71" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>33</v>
@@ -3970,16 +3958,16 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L72" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -3991,13 +3979,13 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L73" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>33</v>
@@ -4012,13 +4000,13 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L74" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>33</v>
@@ -4026,17 +4014,17 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="21"/>
       <c r="L75" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="10" t="s">
@@ -4053,15 +4041,14 @@
       <c r="C76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="21"/>
       <c r="L76" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -4075,11 +4062,11 @@
         <v>33</v>
       </c>
       <c r="L77" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -4092,14 +4079,15 @@
       <c r="C78" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D78" s="21"/>
       <c r="L78" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -4114,13 +4102,13 @@
       </c>
       <c r="D79" s="21"/>
       <c r="L79" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -4135,13 +4123,13 @@
       </c>
       <c r="D80" s="21"/>
       <c r="L80" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -4156,31 +4144,31 @@
       </c>
       <c r="D81" s="21"/>
       <c r="L81" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="21"/>
       <c r="L82" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>33</v>
@@ -4198,10 +4186,10 @@
       </c>
       <c r="D83" s="21"/>
       <c r="L83" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>33</v>
@@ -4214,15 +4202,15 @@
       <c r="B84" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="21"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="18" t="s">
+        <v>575</v>
+      </c>
       <c r="L84" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N84" s="10" t="s">
         <v>33</v>
@@ -4230,20 +4218,19 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="18" t="s">
-        <v>577</v>
+        <v>178</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L85" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>33</v>
@@ -4251,19 +4238,20 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>179</v>
-      </c>
-      <c r="B86" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="B86" s="14" t="s">
+        <v>181</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D86" s="21"/>
       <c r="L86" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N86" s="10" t="s">
         <v>33</v>
@@ -4273,7 +4261,7 @@
       <c r="A87" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="23" t="s">
         <v>183</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4281,10 +4269,10 @@
       </c>
       <c r="D87" s="21"/>
       <c r="L87" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>33</v>
@@ -4294,7 +4282,7 @@
       <c r="A88" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="12" t="s">
         <v>185</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -4302,34 +4290,33 @@
       </c>
       <c r="D88" s="21"/>
       <c r="L88" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>186</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="21"/>
       <c r="L89" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -4339,17 +4326,18 @@
       <c r="B90" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>33</v>
+      <c r="C90" s="1"/>
+      <c r="D90" s="18" t="s">
+        <v>575</v>
       </c>
       <c r="L90" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -4361,16 +4349,16 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L91" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -4380,15 +4368,15 @@
       <c r="B92" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="18" t="s">
-        <v>577</v>
-      </c>
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="21"/>
       <c r="L92" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N92" s="10" t="s">
         <v>33</v>
@@ -4401,18 +4389,18 @@
       <c r="B93" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" s="21"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="18" t="s">
+        <v>575</v>
+      </c>
       <c r="L93" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -4424,13 +4412,13 @@
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L94" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N94" s="10" t="s">
         <v>33</v>
@@ -4438,59 +4426,59 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L95" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="18" t="s">
-        <v>577</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="21"/>
       <c r="L96" t="s">
+        <v>542</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="N96" s="10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="L97" t="s">
         <v>544</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="N96" s="10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="21"/>
-      <c r="L97" t="s">
-        <v>546</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="10" t="s">
@@ -4498,32 +4486,22 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="18" t="s">
-        <v>577</v>
-      </c>
       <c r="L98" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L99" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N99" s="10" t="s">
         <v>33</v>
@@ -4531,32 +4509,32 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L100" t="s">
+        <v>548</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="N100" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="N100" s="10" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L101" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L102" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>33</v>
@@ -4566,10 +4544,10 @@
       <c r="C103" s="1"/>
       <c r="D103" s="21"/>
       <c r="L103" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N103" s="10" t="s">
         <v>33</v>
@@ -4582,13 +4560,13 @@
         <v>68</v>
       </c>
       <c r="L104" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -4598,13 +4576,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -4613,10 +4591,10 @@
         <v>116</v>
       </c>
       <c r="L106" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>33</v>
@@ -4629,10 +4607,10 @@
         <v>123</v>
       </c>
       <c r="L107" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M107" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N107" t="s">
         <v>33</v>
@@ -4641,44 +4619,44 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
       <c r="G108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L108" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N108" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
       <c r="D109" s="21"/>
       <c r="G109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L109" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N109" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
       <c r="G110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N110" t="s">
         <v>33</v>
@@ -4688,383 +4666,383 @@
       <c r="C111" s="24"/>
       <c r="D111" s="19"/>
       <c r="G111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
       <c r="G112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
       <c r="G113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
       <c r="G114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="21"/>
       <c r="G115" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="21"/>
       <c r="G116" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="21"/>
       <c r="G117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="21"/>
       <c r="G118" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="21"/>
       <c r="G119" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="21"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B121" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="21"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="21"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="21"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="21"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="21"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="21"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="21"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="21"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="21"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="21"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="21"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="21"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="21"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="21"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="21"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D138" s="21"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D139" s="21"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D140" s="21"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D142" s="21"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D143" s="21"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D144" s="21"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D145" s="21"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D147" s="21"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D148" s="21"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D149" s="21"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D150" s="21"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="22"/>

--- a/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
+++ b/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873D5797-1DE3-4807-8CC6-E0CFBBF55C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49CCAA-4F2F-4996-A3FB-0046A8C1A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
+++ b/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49CCAA-4F2F-4996-A3FB-0046A8C1A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F2C4F-7ECC-4F76-B5E4-7E1C753B01F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="576">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -1750,7 +1750,7 @@
     <t>COMPLETO</t>
   </si>
   <si>
-    <t>ICMS, PISCOFINS, ECD</t>
+    <t>APENAS ECF</t>
   </si>
 </sst>
 </file>
@@ -1881,9 +1881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1891,9 +1888,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1905,6 +1899,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,29 +2233,29 @@
     <col min="3" max="3" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="L1" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2273,7 +2273,7 @@
       <c r="G2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -2299,16 +2299,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>281</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
@@ -2327,10 +2327,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>283</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2357,8 +2357,8 @@
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="G5" t="s">
+      <c r="D5" s="26"/>
+      <c r="G5" s="10" t="s">
         <v>285</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -2383,16 +2383,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>287</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="10" t="s">
         <v>550</v>
       </c>
       <c r="L6" t="s">
@@ -2413,8 +2413,8 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="G7" t="s">
+      <c r="D7" s="26"/>
+      <c r="G7" s="10" t="s">
         <v>289</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -2441,8 +2441,8 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="G8" t="s">
+      <c r="D8" s="26"/>
+      <c r="G8" s="10" t="s">
         <v>291</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -2467,10 +2467,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -2497,8 +2497,8 @@
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="G10" t="s">
+      <c r="D10" s="26"/>
+      <c r="G10" s="10" t="s">
         <v>295</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2521,10 +2521,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="10" t="s">
         <v>297</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2547,15 +2547,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="10" t="s">
         <v>299</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>300</v>
       </c>
+      <c r="I12" s="10"/>
       <c r="L12" t="s">
         <v>381</v>
       </c>
@@ -2572,15 +2573,16 @@
         <v>24</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="10" t="s">
         <v>301</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>302</v>
       </c>
+      <c r="I13" s="10"/>
       <c r="L13" t="s">
         <v>383</v>
       </c>
@@ -2597,15 +2599,16 @@
         <v>26</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>303</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>304</v>
       </c>
+      <c r="I14" s="10"/>
       <c r="L14" t="s">
         <v>385</v>
       </c>
@@ -2622,15 +2625,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="10" t="s">
         <v>305</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>306</v>
       </c>
+      <c r="I15" s="10"/>
       <c r="L15" t="s">
         <v>387</v>
       </c>
@@ -2647,15 +2651,16 @@
         <v>30</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="10" t="s">
         <v>307</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>308</v>
       </c>
+      <c r="I16" s="10"/>
       <c r="L16" t="s">
         <v>389</v>
       </c>
@@ -2674,13 +2679,14 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="G17" t="s">
+      <c r="D17" s="26"/>
+      <c r="G17" s="10" t="s">
         <v>309</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>256</v>
       </c>
+      <c r="I17" s="10"/>
       <c r="L17" t="s">
         <v>391</v>
       </c>
@@ -2699,13 +2705,14 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="G18" t="s">
+      <c r="D18" s="26"/>
+      <c r="G18" s="10" t="s">
         <v>310</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>311</v>
       </c>
+      <c r="I18" s="10"/>
       <c r="L18" t="s">
         <v>392</v>
       </c>
@@ -2724,13 +2731,14 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="G19" t="s">
+      <c r="D19" s="26"/>
+      <c r="G19" s="10" t="s">
         <v>312</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>313</v>
       </c>
+      <c r="I19" s="10"/>
       <c r="L19" t="s">
         <v>394</v>
       </c>
@@ -2749,13 +2757,14 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="G20" t="s">
+      <c r="D20" s="26"/>
+      <c r="G20" s="10" t="s">
         <v>314</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>315</v>
       </c>
+      <c r="I20" s="10"/>
       <c r="L20" t="s">
         <v>396</v>
       </c>
@@ -2774,13 +2783,14 @@
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="G21" t="s">
+      <c r="D21" s="26"/>
+      <c r="G21" s="10" t="s">
         <v>316</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>317</v>
       </c>
+      <c r="I21" s="10"/>
       <c r="L21" t="s">
         <v>398</v>
       </c>
@@ -2799,13 +2809,14 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="G22" t="s">
+      <c r="D22" s="26"/>
+      <c r="G22" s="10" t="s">
         <v>318</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>319</v>
       </c>
+      <c r="I22" s="10"/>
       <c r="L22" t="s">
         <v>400</v>
       </c>
@@ -2824,13 +2835,14 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="G23" t="s">
+      <c r="D23" s="26"/>
+      <c r="G23" s="10" t="s">
         <v>320</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>321</v>
       </c>
+      <c r="I23" s="10"/>
       <c r="L23" t="s">
         <v>402</v>
       </c>
@@ -2847,15 +2859,16 @@
         <v>47</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="10" t="s">
         <v>322</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>323</v>
       </c>
+      <c r="I24" s="10"/>
       <c r="L24" t="s">
         <v>404</v>
       </c>
@@ -2872,15 +2885,16 @@
         <v>49</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="10" t="s">
         <v>324</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>325</v>
       </c>
+      <c r="I25" s="10"/>
       <c r="L25" t="s">
         <v>406</v>
       </c>
@@ -2897,15 +2911,16 @@
         <v>51</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="10" t="s">
         <v>326</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>327</v>
       </c>
+      <c r="I26" s="10"/>
       <c r="L26" t="s">
         <v>408</v>
       </c>
@@ -2922,13 +2937,16 @@
         <v>53</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G27" t="s">
-        <v>328</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="G27" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I27" s="10"/>
       <c r="L27" t="s">
         <v>410</v>
       </c>
@@ -2947,13 +2965,14 @@
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="G28" t="s">
-        <v>329</v>
+      <c r="D28" s="26"/>
+      <c r="G28" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>330</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="I28" s="10"/>
       <c r="L28" t="s">
         <v>412</v>
       </c>
@@ -2970,13 +2989,16 @@
         <v>57</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G29" t="s">
-        <v>331</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="G29" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I29" s="10"/>
       <c r="L29" t="s">
         <v>414</v>
       </c>
@@ -2995,13 +3017,14 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="G30" t="s">
-        <v>332</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>333</v>
-      </c>
+      <c r="D30" s="26"/>
+      <c r="G30" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I30" s="10"/>
       <c r="L30" t="s">
         <v>416</v>
       </c>
@@ -3018,15 +3041,16 @@
         <v>61</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G31" t="s">
-        <v>334</v>
+      <c r="G31" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>335</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I31" s="10"/>
       <c r="L31" t="s">
         <v>418</v>
       </c>
@@ -3041,15 +3065,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G32" t="s">
-        <v>336</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>337</v>
-      </c>
+      <c r="G32" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I32" s="10"/>
       <c r="L32" t="s">
         <v>419</v>
       </c>
@@ -3068,13 +3093,14 @@
       <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="G33" t="s">
-        <v>338</v>
+      <c r="D33" s="26"/>
+      <c r="G33" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>339</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="I33" s="10"/>
       <c r="L33" t="s">
         <v>420</v>
       </c>
@@ -3093,13 +3119,14 @@
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="G34" t="s">
-        <v>340</v>
+      <c r="D34" s="26"/>
+      <c r="G34" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>341</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="I34" s="10"/>
       <c r="L34" t="s">
         <v>422</v>
       </c>
@@ -3116,15 +3143,16 @@
         <v>70</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="G35" t="s">
-        <v>342</v>
+      <c r="G35" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>343</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="I35" s="10"/>
       <c r="L35" t="s">
         <v>424</v>
       </c>
@@ -3141,22 +3169,23 @@
         <v>72</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="G36" t="s">
-        <v>344</v>
+      <c r="D36" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>345</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="I36" s="10"/>
       <c r="L36" t="s">
         <v>426</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3168,22 +3197,23 @@
         <v>74</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="G37" t="s">
-        <v>346</v>
+      <c r="D37" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>347</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I37" s="10"/>
       <c r="L37" t="s">
         <v>428</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3195,20 +3225,23 @@
         <v>76</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="G38" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="D38" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I38" s="10"/>
       <c r="L38" t="s">
         <v>430</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3222,20 +3255,21 @@
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="G39" t="s">
-        <v>349</v>
+      <c r="D39" s="26"/>
+      <c r="G39" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>350</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="I39" s="10"/>
       <c r="L39" t="s">
         <v>432</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="N39" s="20" t="s">
+      <c r="N39" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3247,22 +3281,23 @@
         <v>80</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="G40" t="s">
-        <v>351</v>
+      <c r="D40" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="I40" s="10"/>
       <c r="L40" t="s">
         <v>434</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3276,20 +3311,21 @@
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="26"/>
       <c r="G41" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>353</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="I41" s="10"/>
       <c r="L41" t="s">
         <v>436</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="N41" s="20" t="s">
+      <c r="N41" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3300,21 +3336,22 @@
       <c r="B42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="19"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="25" t="s">
+        <v>574</v>
+      </c>
       <c r="G42" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>355</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="I42" s="10"/>
       <c r="L42" t="s">
         <v>438</v>
       </c>
       <c r="M42" s="5"/>
-      <c r="N42" s="20"/>
+      <c r="N42" s="19"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -3323,23 +3360,24 @@
       <c r="B43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="19"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="25" t="s">
+        <v>574</v>
+      </c>
       <c r="G43" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>357</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="I43" s="10"/>
       <c r="L43" t="s">
         <v>439</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3353,20 +3391,14 @@
       <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="G44" t="s">
-        <v>358</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>359</v>
-      </c>
+      <c r="D44" s="26"/>
       <c r="L44" t="s">
         <v>441</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3378,14 +3410,8 @@
         <v>90</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="G45" t="s">
-        <v>360</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>361</v>
+      <c r="D45" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L45" t="s">
         <v>443</v>
@@ -3393,7 +3419,7 @@
       <c r="M45" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="N45" s="20" t="s">
+      <c r="N45" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3405,11 +3431,8 @@
         <v>92</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="G46" t="s">
-        <v>362</v>
+      <c r="D46" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="H46" s="5"/>
       <c r="L46" t="s">
@@ -3418,7 +3441,7 @@
       <c r="M46" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="N46" s="20" t="s">
+      <c r="N46" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3430,14 +3453,8 @@
         <v>94</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="G47" t="s">
-        <v>363</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>364</v>
+      <c r="D47" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L47" t="s">
         <v>447</v>
@@ -3445,7 +3462,7 @@
       <c r="M47" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3457,8 +3474,8 @@
         <v>96</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="18" t="s">
-        <v>575</v>
+      <c r="D48" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L48" t="s">
         <v>449</v>
@@ -3466,7 +3483,7 @@
       <c r="M48" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="N48" s="20" t="s">
+      <c r="N48" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3478,8 +3495,8 @@
         <v>98</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="18" t="s">
-        <v>575</v>
+      <c r="D49" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L49" t="s">
         <v>451</v>
@@ -3487,7 +3504,7 @@
       <c r="M49" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="N49" s="20" t="s">
+      <c r="N49" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3499,8 +3516,8 @@
         <v>100</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="18" t="s">
-        <v>575</v>
+      <c r="D50" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L50" t="s">
         <v>453</v>
@@ -3508,7 +3525,7 @@
       <c r="M50" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3522,14 +3539,14 @@
       <c r="C51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="26"/>
       <c r="L51" t="s">
         <v>455</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="N51" s="20" t="s">
+      <c r="N51" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3543,14 +3560,14 @@
       <c r="C52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="26"/>
       <c r="L52" t="s">
         <v>457</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="N52" s="20" t="s">
+      <c r="N52" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3562,8 +3579,8 @@
         <v>107</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="18" t="s">
-        <v>575</v>
+      <c r="D53" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L53" t="s">
         <v>459</v>
@@ -3571,7 +3588,7 @@
       <c r="M53" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="N53" s="20" t="s">
+      <c r="N53" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3585,12 +3602,12 @@
       <c r="C54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="26"/>
       <c r="L54" t="s">
         <v>461</v>
       </c>
       <c r="M54" s="4"/>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3604,14 +3621,17 @@
       <c r="C55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="26"/>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
       <c r="L55" t="s">
         <v>462</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="N55" s="20" t="s">
+      <c r="N55" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3623,8 +3643,11 @@
         <v>113</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="18" t="s">
-        <v>575</v>
+      <c r="D56" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G56" t="s">
+        <v>105</v>
       </c>
       <c r="L56" t="s">
         <v>464</v>
@@ -3632,7 +3655,7 @@
       <c r="M56" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3644,8 +3667,11 @@
         <v>115</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="18" t="s">
-        <v>575</v>
+      <c r="D57" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G57" t="s">
+        <v>116</v>
       </c>
       <c r="L57" t="s">
         <v>466</v>
@@ -3653,7 +3679,7 @@
       <c r="M57" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="N57" s="20" t="s">
+      <c r="N57" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3664,8 +3690,11 @@
       <c r="B58" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>575</v>
+      <c r="D58" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G58" t="s">
+        <v>123</v>
       </c>
       <c r="L58" t="s">
         <v>468</v>
@@ -3673,7 +3702,7 @@
       <c r="M58" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="N58" s="20" t="s">
+      <c r="N58" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3684,17 +3713,20 @@
       <c r="B59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="21"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G59" t="s">
+        <v>136</v>
+      </c>
       <c r="L59" t="s">
         <v>470</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="N59" s="20" t="s">
+      <c r="N59" s="19" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3708,7 +3740,10 @@
       <c r="C60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="26"/>
+      <c r="G60" t="s">
+        <v>153</v>
+      </c>
       <c r="L60" t="s">
         <v>472</v>
       </c>
@@ -3727,8 +3762,11 @@
         <v>125</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="18" t="s">
-        <v>575</v>
+      <c r="D61" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G61" t="s">
+        <v>154</v>
       </c>
       <c r="L61" t="s">
         <v>474</v>
@@ -3750,7 +3788,10 @@
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="26"/>
+      <c r="G62" t="s">
+        <v>169</v>
+      </c>
       <c r="L62" t="s">
         <v>476</v>
       </c>
@@ -3769,8 +3810,11 @@
         <v>129</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="18" t="s">
-        <v>575</v>
+      <c r="D63" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G63" t="s">
+        <v>176</v>
       </c>
       <c r="L63" t="s">
         <v>478</v>
@@ -3792,7 +3836,12 @@
       <c r="C64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="21"/>
+      <c r="D64" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G64" t="s">
+        <v>179</v>
+      </c>
       <c r="L64" t="s">
         <v>480</v>
       </c>
@@ -3811,8 +3860,11 @@
         <v>133</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="18" t="s">
-        <v>575</v>
+      <c r="D65" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G65" t="s">
+        <v>198</v>
       </c>
       <c r="L65" t="s">
         <v>482</v>
@@ -3831,10 +3883,13 @@
       <c r="B66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="21"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="G66" t="s">
+        <v>201</v>
+      </c>
       <c r="L66" t="s">
         <v>484</v>
       </c>
@@ -3855,6 +3910,10 @@
       <c r="C67" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D67" s="26"/>
+      <c r="G67" t="s">
+        <v>204</v>
+      </c>
       <c r="L67" t="s">
         <v>486</v>
       </c>
@@ -3875,7 +3934,10 @@
       <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="21"/>
+      <c r="D68" s="26"/>
+      <c r="G68" t="s">
+        <v>207</v>
+      </c>
       <c r="L68" t="s">
         <v>488</v>
       </c>
@@ -3894,8 +3956,11 @@
         <v>142</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="18" t="s">
-        <v>575</v>
+      <c r="D69" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G69" t="s">
+        <v>208</v>
       </c>
       <c r="L69" t="s">
         <v>490</v>
@@ -3917,7 +3982,10 @@
       <c r="C70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="21"/>
+      <c r="D70" s="26"/>
+      <c r="G70" t="s">
+        <v>209</v>
+      </c>
       <c r="L70" t="s">
         <v>492</v>
       </c>
@@ -3936,8 +4004,11 @@
         <v>146</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="18" t="s">
-        <v>575</v>
+      <c r="D71" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="L71" t="s">
         <v>494</v>
@@ -3957,8 +4028,11 @@
         <v>148</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="18" t="s">
-        <v>575</v>
+      <c r="D72" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="L72" t="s">
         <v>496</v>
@@ -3978,8 +4052,11 @@
         <v>150</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="18" t="s">
-        <v>575</v>
+      <c r="D73" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="L73" t="s">
         <v>498</v>
@@ -3999,8 +4076,11 @@
         <v>152</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="18" t="s">
-        <v>575</v>
+      <c r="D74" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G74" t="s">
+        <v>362</v>
       </c>
       <c r="L74" t="s">
         <v>500</v>
@@ -4022,7 +4102,7 @@
       <c r="C75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="21"/>
+      <c r="D75" s="26"/>
       <c r="L75" t="s">
         <v>502</v>
       </c>
@@ -4041,6 +4121,7 @@
       <c r="C76" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D76" s="26"/>
       <c r="L76" t="s">
         <v>503</v>
       </c>
@@ -4061,6 +4142,7 @@
       <c r="C77" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D77" s="26"/>
       <c r="L77" t="s">
         <v>505</v>
       </c>
@@ -4079,7 +4161,7 @@
       <c r="C78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="21"/>
+      <c r="D78" s="26"/>
       <c r="L78" t="s">
         <v>506</v>
       </c>
@@ -4100,7 +4182,7 @@
       <c r="C79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="21"/>
+      <c r="D79" s="26"/>
       <c r="L79" t="s">
         <v>508</v>
       </c>
@@ -4121,7 +4203,7 @@
       <c r="C80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="21"/>
+      <c r="D80" s="26"/>
       <c r="L80" t="s">
         <v>510</v>
       </c>
@@ -4142,7 +4224,7 @@
       <c r="C81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="21"/>
+      <c r="D81" s="26"/>
       <c r="L81" t="s">
         <v>512</v>
       </c>
@@ -4163,7 +4245,7 @@
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="21"/>
+      <c r="D82" s="26"/>
       <c r="L82" t="s">
         <v>514</v>
       </c>
@@ -4184,7 +4266,7 @@
       <c r="C83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="21"/>
+      <c r="D83" s="26"/>
       <c r="L83" t="s">
         <v>516</v>
       </c>
@@ -4203,8 +4285,8 @@
         <v>175</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="18" t="s">
-        <v>575</v>
+      <c r="D84" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L84" t="s">
         <v>518</v>
@@ -4226,6 +4308,7 @@
       <c r="C85" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D85" s="26"/>
       <c r="L85" t="s">
         <v>520</v>
       </c>
@@ -4246,7 +4329,7 @@
       <c r="C86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D86" s="21"/>
+      <c r="D86" s="26"/>
       <c r="L86" t="s">
         <v>522</v>
       </c>
@@ -4261,13 +4344,13 @@
       <c r="A87" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="21" t="s">
         <v>183</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="21"/>
+      <c r="D87" s="26"/>
       <c r="L87" t="s">
         <v>524</v>
       </c>
@@ -4288,7 +4371,7 @@
       <c r="C88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="21"/>
+      <c r="D88" s="26"/>
       <c r="L88" t="s">
         <v>526</v>
       </c>
@@ -4309,6 +4392,7 @@
       <c r="C89" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D89" s="26"/>
       <c r="L89" t="s">
         <v>528</v>
       </c>
@@ -4327,8 +4411,8 @@
         <v>189</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="18" t="s">
-        <v>575</v>
+      <c r="D90" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L90" t="s">
         <v>530</v>
@@ -4348,8 +4432,8 @@
         <v>191</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="18" t="s">
-        <v>575</v>
+      <c r="D91" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L91" t="s">
         <v>532</v>
@@ -4371,7 +4455,7 @@
       <c r="C92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="21"/>
+      <c r="D92" s="26"/>
       <c r="L92" t="s">
         <v>534</v>
       </c>
@@ -4390,8 +4474,8 @@
         <v>195</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="18" t="s">
-        <v>575</v>
+      <c r="D93" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L93" t="s">
         <v>536</v>
@@ -4411,8 +4495,8 @@
         <v>197</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="18" t="s">
-        <v>575</v>
+      <c r="D94" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L94" t="s">
         <v>538</v>
@@ -4432,8 +4516,8 @@
         <v>200</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="18" t="s">
-        <v>575</v>
+      <c r="D95" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L95" t="s">
         <v>540</v>
@@ -4455,7 +4539,7 @@
       <c r="C96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="21"/>
+      <c r="D96" s="26"/>
       <c r="L96" t="s">
         <v>542</v>
       </c>
@@ -4474,8 +4558,8 @@
         <v>206</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="18" t="s">
-        <v>575</v>
+      <c r="D97" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="L97" t="s">
         <v>544</v>
@@ -4542,7 +4626,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C103" s="1"/>
-      <c r="D103" s="21"/>
+      <c r="D103" s="20"/>
       <c r="L103" t="s">
         <v>555</v>
       </c>
@@ -4555,10 +4639,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
-      <c r="D104" s="21"/>
-      <c r="G104" t="s">
-        <v>68</v>
-      </c>
+      <c r="D104" s="20"/>
       <c r="L104" t="s">
         <v>557</v>
       </c>
@@ -4571,10 +4652,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C105" s="1"/>
-      <c r="D105" s="21"/>
-      <c r="G105" t="s">
-        <v>105</v>
-      </c>
+      <c r="D105" s="20"/>
       <c r="L105" t="s">
         <v>559</v>
       </c>
@@ -4587,9 +4665,6 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C106" s="1"/>
-      <c r="G106" t="s">
-        <v>116</v>
-      </c>
       <c r="L106" t="s">
         <v>561</v>
       </c>
@@ -4602,10 +4677,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
-      <c r="D107" s="21"/>
-      <c r="G107" t="s">
-        <v>123</v>
-      </c>
+      <c r="D107" s="20"/>
       <c r="L107" t="s">
         <v>563</v>
       </c>
@@ -4618,9 +4690,6 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
-      <c r="G108" t="s">
-        <v>136</v>
-      </c>
       <c r="L108" t="s">
         <v>565</v>
       </c>
@@ -4633,10 +4702,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
-      <c r="D109" s="21"/>
-      <c r="G109" t="s">
-        <v>153</v>
-      </c>
+      <c r="D109" s="20"/>
       <c r="L109" t="s">
         <v>567</v>
       </c>
@@ -4649,9 +4715,6 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
-      <c r="G110" t="s">
-        <v>154</v>
-      </c>
       <c r="L110" t="s">
         <v>569</v>
       </c>
@@ -4663,389 +4726,365 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C111" s="24"/>
-      <c r="D111" s="19"/>
-      <c r="G111" t="s">
-        <v>169</v>
+      <c r="C111" s="22"/>
+      <c r="D111" s="18"/>
+      <c r="L111" t="s">
+        <v>210</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
-      <c r="G112" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L112" t="s">
+        <v>212</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
-      <c r="G113" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L113" t="s">
+        <v>214</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
-      <c r="G114" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>210</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="L114" t="s">
+        <v>216</v>
+      </c>
+      <c r="M114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
-      <c r="D115" s="21"/>
-      <c r="G115" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>212</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D115" s="20"/>
+      <c r="L115" t="s">
+        <v>218</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
-      <c r="D116" s="21"/>
-      <c r="G116" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>214</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="D116" s="20"/>
+      <c r="L116" t="s">
+        <v>220</v>
+      </c>
+      <c r="M116" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
-      <c r="D117" s="21"/>
-      <c r="G117" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>216</v>
-      </c>
-      <c r="B118" t="s">
-        <v>217</v>
-      </c>
+      <c r="D117" s="20"/>
+      <c r="L117" t="s">
+        <v>222</v>
+      </c>
+      <c r="M117" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
-      <c r="D118" s="21"/>
-      <c r="G118" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>218</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="D118" s="20"/>
+      <c r="L118" t="s">
+        <v>224</v>
+      </c>
+      <c r="M118" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
-      <c r="D119" s="21"/>
-      <c r="G119" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>220</v>
-      </c>
-      <c r="B120" t="s">
-        <v>221</v>
-      </c>
+      <c r="D119" s="20"/>
+      <c r="L119" t="s">
+        <v>226</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
-      <c r="D120" s="21"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>222</v>
-      </c>
-      <c r="B121" t="s">
-        <v>223</v>
-      </c>
+      <c r="D120" s="20"/>
+      <c r="L120" t="s">
+        <v>228</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
-      <c r="D121" s="21"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>224</v>
-      </c>
-      <c r="B122" t="s">
-        <v>225</v>
-      </c>
+      <c r="D121" s="20"/>
+      <c r="L121" t="s">
+        <v>230</v>
+      </c>
+      <c r="M121" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
-      <c r="D122" s="21"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>226</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="D122" s="20"/>
+      <c r="L122" t="s">
+        <v>232</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
-      <c r="D123" s="21"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>228</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>229</v>
-      </c>
+      <c r="D123" s="20"/>
+      <c r="L123" t="s">
+        <v>234</v>
+      </c>
+      <c r="M123" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
-      <c r="D124" s="21"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>230</v>
-      </c>
-      <c r="B125" t="s">
-        <v>231</v>
-      </c>
+      <c r="D124" s="20"/>
+      <c r="L124" t="s">
+        <v>236</v>
+      </c>
+      <c r="M124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
-      <c r="D125" s="21"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>232</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>233</v>
-      </c>
+      <c r="D125" s="20"/>
+      <c r="L125" t="s">
+        <v>238</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
-      <c r="D126" s="21"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>234</v>
-      </c>
-      <c r="B127" t="s">
-        <v>235</v>
-      </c>
+      <c r="D126" s="20"/>
+      <c r="L126" t="s">
+        <v>240</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
-      <c r="D127" s="21"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>236</v>
-      </c>
-      <c r="B128" t="s">
-        <v>237</v>
-      </c>
+      <c r="D127" s="20"/>
+      <c r="L127" t="s">
+        <v>242</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C128" s="1"/>
-      <c r="D128" s="21"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>238</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="D128" s="20"/>
+      <c r="L128" t="s">
+        <v>244</v>
+      </c>
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C129" s="1"/>
-      <c r="D129" s="21"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>240</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>241</v>
-      </c>
+      <c r="D129" s="20"/>
+      <c r="L129" t="s">
+        <v>245</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C130" s="1"/>
-      <c r="D130" s="21"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>242</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>243</v>
-      </c>
+      <c r="D130" s="20"/>
+      <c r="L130" t="s">
+        <v>247</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C131" s="1"/>
-      <c r="D131" s="21"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>244</v>
-      </c>
+      <c r="D131" s="20"/>
+      <c r="L131" t="s">
+        <v>249</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>245</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>246</v>
-      </c>
+      <c r="L132" t="s">
+        <v>251</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C133" s="1"/>
-      <c r="D133" s="21"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>247</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>248</v>
-      </c>
+      <c r="D133" s="20"/>
+      <c r="L133" t="s">
+        <v>253</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C134" s="1"/>
-      <c r="D134" s="21"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>249</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>250</v>
-      </c>
+      <c r="D134" s="20"/>
+      <c r="L134" t="s">
+        <v>255</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C135" s="1"/>
-      <c r="D135" s="21"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>251</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>252</v>
-      </c>
+      <c r="D135" s="20"/>
+      <c r="L135" t="s">
+        <v>257</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C136" s="1"/>
-      <c r="D136" s="21"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>253</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>254</v>
-      </c>
+      <c r="D136" s="20"/>
+      <c r="L136" t="s">
+        <v>259</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C137" s="1"/>
-      <c r="D137" s="21"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>255</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D138" s="21"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>257</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D139" s="21"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>259</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D140" s="21"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="D137" s="20"/>
+      <c r="L137" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D138" s="20"/>
+      <c r="L138" t="s">
         <v>262</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="M138" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D142" s="21"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D139" s="20"/>
+      <c r="L139" t="s">
         <v>264</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="M139" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D143" s="21"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D140" s="20"/>
+      <c r="L140" t="s">
         <v>266</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="M140" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D144" s="21"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    </row>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="L141" t="s">
         <v>268</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="M141" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D145" s="21"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D142" s="20"/>
+      <c r="L142" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D143" s="20"/>
+      <c r="L143" t="s">
         <v>271</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="M143" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D147" s="21"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D144" s="20"/>
+      <c r="L144" t="s">
         <v>273</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="M144" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D148" s="21"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D145" s="20"/>
+      <c r="L145" t="s">
         <v>275</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="M145" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D149" s="21"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="L146" t="s">
         <v>277</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="M146" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D150" s="21"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="9" t="s">
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D147" s="20"/>
+      <c r="L147" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="M147" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="22"/>
+    </row>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D148" s="20"/>
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D149" s="20"/>
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D150" s="20"/>
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C151" s="12"/>
+      <c r="D151" s="18"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175" s="12"/>

--- a/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
+++ b/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F2C4F-7ECC-4F76-B5E4-7E1C753B01F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B409890C-A2EA-4EE6-84BF-5A6D341918BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="577">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -1751,6 +1751,9 @@
   </si>
   <si>
     <t>APENAS ECF</t>
+  </si>
+  <si>
+    <t>ecf</t>
   </si>
 </sst>
 </file>
@@ -1894,17 +1897,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2222,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,22 +2243,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="L1" s="24" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2299,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -2327,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -2357,7 +2360,7 @@
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="24"/>
       <c r="G5" s="10" t="s">
         <v>285</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -2413,7 +2416,7 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="G7" s="10" t="s">
         <v>289</v>
       </c>
@@ -2441,7 +2444,7 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="24"/>
       <c r="G8" s="10" t="s">
         <v>291</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -2497,7 +2500,7 @@
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="24"/>
       <c r="G10" s="10" t="s">
         <v>295</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -2547,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -2556,7 +2559,10 @@
       <c r="H12" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="L12" t="s">
         <v>381</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -2582,7 +2588,10 @@
       <c r="H13" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="10"/>
       <c r="L13" t="s">
         <v>383</v>
       </c>
@@ -2599,7 +2608,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -2608,7 +2617,10 @@
       <c r="H14" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="10"/>
       <c r="L14" t="s">
         <v>385</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -2635,6 +2647,9 @@
         <v>306</v>
       </c>
       <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L15" t="s">
         <v>387</v>
       </c>
@@ -2651,7 +2666,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -2661,6 +2676,9 @@
         <v>308</v>
       </c>
       <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L16" t="s">
         <v>389</v>
       </c>
@@ -2679,7 +2697,7 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
       <c r="G17" s="10" t="s">
         <v>309</v>
       </c>
@@ -2687,6 +2705,9 @@
         <v>256</v>
       </c>
       <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L17" t="s">
         <v>391</v>
       </c>
@@ -2705,7 +2726,7 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
       <c r="G18" s="10" t="s">
         <v>310</v>
       </c>
@@ -2713,6 +2734,9 @@
         <v>311</v>
       </c>
       <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L18" t="s">
         <v>392</v>
       </c>
@@ -2731,7 +2755,7 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="24"/>
       <c r="G19" s="10" t="s">
         <v>312</v>
       </c>
@@ -2739,6 +2763,9 @@
         <v>313</v>
       </c>
       <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L19" t="s">
         <v>394</v>
       </c>
@@ -2757,7 +2784,7 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="24"/>
       <c r="G20" s="10" t="s">
         <v>314</v>
       </c>
@@ -2765,6 +2792,9 @@
         <v>315</v>
       </c>
       <c r="I20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L20" t="s">
         <v>396</v>
       </c>
@@ -2783,7 +2813,7 @@
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="24"/>
       <c r="G21" s="10" t="s">
         <v>316</v>
       </c>
@@ -2791,6 +2821,9 @@
         <v>317</v>
       </c>
       <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L21" t="s">
         <v>398</v>
       </c>
@@ -2809,7 +2842,7 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="24"/>
       <c r="G22" s="10" t="s">
         <v>318</v>
       </c>
@@ -2817,6 +2850,9 @@
         <v>319</v>
       </c>
       <c r="I22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L22" t="s">
         <v>400</v>
       </c>
@@ -2835,7 +2871,7 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="24"/>
       <c r="G23" s="10" t="s">
         <v>320</v>
       </c>
@@ -2843,6 +2879,9 @@
         <v>321</v>
       </c>
       <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L23" t="s">
         <v>402</v>
       </c>
@@ -2859,7 +2898,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -2868,7 +2907,10 @@
       <c r="H24" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="10"/>
       <c r="L24" t="s">
         <v>404</v>
       </c>
@@ -2885,7 +2927,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -2895,6 +2937,9 @@
         <v>325</v>
       </c>
       <c r="I25" s="10"/>
+      <c r="J25" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L25" t="s">
         <v>406</v>
       </c>
@@ -2911,7 +2956,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -2921,6 +2966,9 @@
         <v>327</v>
       </c>
       <c r="I26" s="10"/>
+      <c r="J26" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L26" t="s">
         <v>408</v>
       </c>
@@ -2937,7 +2985,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -2946,7 +2994,10 @@
       <c r="H27" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="10"/>
       <c r="L27" t="s">
         <v>410</v>
       </c>
@@ -2965,14 +3016,17 @@
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="24"/>
       <c r="G28" s="10" t="s">
         <v>332</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="10"/>
       <c r="L28" t="s">
         <v>412</v>
       </c>
@@ -2989,7 +3043,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G29" s="10" t="s">
@@ -2999,6 +3053,9 @@
         <v>335</v>
       </c>
       <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L29" t="s">
         <v>414</v>
       </c>
@@ -3017,7 +3074,7 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="24"/>
       <c r="G30" s="10" t="s">
         <v>336</v>
       </c>
@@ -3025,6 +3082,9 @@
         <v>337</v>
       </c>
       <c r="I30" s="10"/>
+      <c r="J30" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L30" t="s">
         <v>416</v>
       </c>
@@ -3041,7 +3101,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -3051,6 +3111,9 @@
         <v>339</v>
       </c>
       <c r="I31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L31" t="s">
         <v>418</v>
       </c>
@@ -3065,7 +3128,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G32" s="10" t="s">
@@ -3074,7 +3137,10 @@
       <c r="H32" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="I32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="10"/>
       <c r="L32" t="s">
         <v>419</v>
       </c>
@@ -3093,7 +3159,7 @@
       <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="24"/>
       <c r="G33" s="10" t="s">
         <v>342</v>
       </c>
@@ -3101,6 +3167,9 @@
         <v>343</v>
       </c>
       <c r="I33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L33" t="s">
         <v>420</v>
       </c>
@@ -3119,7 +3188,7 @@
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="24"/>
       <c r="G34" s="10" t="s">
         <v>344</v>
       </c>
@@ -3127,6 +3196,9 @@
         <v>345</v>
       </c>
       <c r="I34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L34" t="s">
         <v>422</v>
       </c>
@@ -3143,7 +3215,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G35" s="10" t="s">
@@ -3153,6 +3225,9 @@
         <v>347</v>
       </c>
       <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L35" t="s">
         <v>424</v>
       </c>
@@ -3169,7 +3244,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G36" s="10" t="s">
@@ -3178,7 +3253,10 @@
       <c r="H36" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="10"/>
       <c r="L36" t="s">
         <v>426</v>
       </c>
@@ -3197,7 +3275,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -3206,7 +3284,10 @@
       <c r="H37" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="10"/>
       <c r="L37" t="s">
         <v>428</v>
       </c>
@@ -3225,7 +3306,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G38" s="10" t="s">
@@ -3235,6 +3316,9 @@
         <v>353</v>
       </c>
       <c r="I38" s="10"/>
+      <c r="J38" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L38" t="s">
         <v>430</v>
       </c>
@@ -3255,14 +3339,17 @@
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="24"/>
       <c r="G39" s="10" t="s">
         <v>354</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="10"/>
       <c r="L39" t="s">
         <v>432</v>
       </c>
@@ -3281,7 +3368,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G40" s="10" t="s">
@@ -3291,6 +3378,9 @@
         <v>357</v>
       </c>
       <c r="I40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L40" t="s">
         <v>434</v>
       </c>
@@ -3311,14 +3401,17 @@
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="G41" t="s">
         <v>358</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="10"/>
       <c r="L41" t="s">
         <v>436</v>
       </c>
@@ -3337,7 +3430,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G42" t="s">
@@ -3347,6 +3440,9 @@
         <v>361</v>
       </c>
       <c r="I42" s="10"/>
+      <c r="J42" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L42" t="s">
         <v>438</v>
       </c>
@@ -3361,7 +3457,7 @@
         <v>86</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G43" t="s">
@@ -3371,6 +3467,9 @@
         <v>364</v>
       </c>
       <c r="I43" s="10"/>
+      <c r="J43" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="L43" t="s">
         <v>439</v>
       </c>
@@ -3391,7 +3490,8 @@
       <c r="C44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="24"/>
+      <c r="I44" s="10"/>
       <c r="L44" t="s">
         <v>441</v>
       </c>
@@ -3410,7 +3510,7 @@
         <v>90</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L45" t="s">
@@ -3431,7 +3531,7 @@
         <v>92</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="23" t="s">
         <v>574</v>
       </c>
       <c r="H46" s="5"/>
@@ -3453,7 +3553,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L47" t="s">
@@ -3474,7 +3574,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L48" t="s">
@@ -3495,7 +3595,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L49" t="s">
@@ -3516,7 +3616,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L50" t="s">
@@ -3539,7 +3639,7 @@
       <c r="C51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="26"/>
+      <c r="D51" s="24"/>
       <c r="L51" t="s">
         <v>455</v>
       </c>
@@ -3560,7 +3660,7 @@
       <c r="C52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="26"/>
+      <c r="D52" s="24"/>
       <c r="L52" t="s">
         <v>457</v>
       </c>
@@ -3579,7 +3679,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L53" t="s">
@@ -3602,7 +3702,7 @@
       <c r="C54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="24"/>
       <c r="L54" t="s">
         <v>461</v>
       </c>
@@ -3621,7 +3721,7 @@
       <c r="C55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="24"/>
       <c r="G55" t="s">
         <v>68</v>
       </c>
@@ -3643,7 +3743,7 @@
         <v>113</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G56" t="s">
@@ -3667,7 +3767,7 @@
         <v>115</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G57" t="s">
@@ -3690,7 +3790,7 @@
       <c r="B58" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G58" t="s">
@@ -3714,7 +3814,7 @@
         <v>120</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G59" t="s">
@@ -3740,7 +3840,7 @@
       <c r="C60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="26"/>
+      <c r="D60" s="24"/>
       <c r="G60" t="s">
         <v>153</v>
       </c>
@@ -3762,7 +3862,7 @@
         <v>125</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G61" t="s">
@@ -3788,7 +3888,7 @@
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="24"/>
       <c r="G62" t="s">
         <v>169</v>
       </c>
@@ -3810,7 +3910,7 @@
         <v>129</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G63" t="s">
@@ -3836,7 +3936,7 @@
       <c r="C64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G64" t="s">
@@ -3860,7 +3960,7 @@
         <v>133</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G65" t="s">
@@ -3884,7 +3984,7 @@
         <v>135</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="23" t="s">
         <v>575</v>
       </c>
       <c r="G66" t="s">
@@ -3910,7 +4010,7 @@
       <c r="C67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="26"/>
+      <c r="D67" s="24"/>
       <c r="G67" t="s">
         <v>204</v>
       </c>
@@ -3934,7 +4034,7 @@
       <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="26"/>
+      <c r="D68" s="24"/>
       <c r="G68" t="s">
         <v>207</v>
       </c>
@@ -3956,7 +4056,7 @@
         <v>142</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G69" t="s">
@@ -3982,7 +4082,7 @@
       <c r="C70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="26"/>
+      <c r="D70" s="24"/>
       <c r="G70" t="s">
         <v>209</v>
       </c>
@@ -4004,7 +4104,7 @@
         <v>146</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G71" s="10" t="s">
@@ -4028,7 +4128,7 @@
         <v>148</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G72" s="10" t="s">
@@ -4052,7 +4152,7 @@
         <v>150</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G73" s="10" t="s">
@@ -4076,7 +4176,7 @@
         <v>152</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="23" t="s">
         <v>574</v>
       </c>
       <c r="G74" t="s">
@@ -4102,7 +4202,7 @@
       <c r="C75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="26"/>
+      <c r="D75" s="24"/>
       <c r="L75" t="s">
         <v>502</v>
       </c>
@@ -4121,7 +4221,7 @@
       <c r="C76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="26"/>
+      <c r="D76" s="24"/>
       <c r="L76" t="s">
         <v>503</v>
       </c>
@@ -4142,7 +4242,7 @@
       <c r="C77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="26"/>
+      <c r="D77" s="24"/>
       <c r="L77" t="s">
         <v>505</v>
       </c>
@@ -4161,7 +4261,7 @@
       <c r="C78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="26"/>
+      <c r="D78" s="24"/>
       <c r="L78" t="s">
         <v>506</v>
       </c>
@@ -4182,7 +4282,7 @@
       <c r="C79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="26"/>
+      <c r="D79" s="24"/>
       <c r="L79" t="s">
         <v>508</v>
       </c>
@@ -4203,7 +4303,7 @@
       <c r="C80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="26"/>
+      <c r="D80" s="24"/>
       <c r="L80" t="s">
         <v>510</v>
       </c>
@@ -4224,7 +4324,7 @@
       <c r="C81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="26"/>
+      <c r="D81" s="24"/>
       <c r="L81" t="s">
         <v>512</v>
       </c>
@@ -4245,7 +4345,7 @@
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="26"/>
+      <c r="D82" s="24"/>
       <c r="L82" t="s">
         <v>514</v>
       </c>
@@ -4266,7 +4366,7 @@
       <c r="C83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="26"/>
+      <c r="D83" s="24"/>
       <c r="L83" t="s">
         <v>516</v>
       </c>
@@ -4285,7 +4385,7 @@
         <v>175</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L84" t="s">
@@ -4308,7 +4408,7 @@
       <c r="C85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="26"/>
+      <c r="D85" s="24"/>
       <c r="L85" t="s">
         <v>520</v>
       </c>
@@ -4329,7 +4429,7 @@
       <c r="C86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D86" s="26"/>
+      <c r="D86" s="24"/>
       <c r="L86" t="s">
         <v>522</v>
       </c>
@@ -4350,7 +4450,7 @@
       <c r="C87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="26"/>
+      <c r="D87" s="24"/>
       <c r="L87" t="s">
         <v>524</v>
       </c>
@@ -4371,7 +4471,7 @@
       <c r="C88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="26"/>
+      <c r="D88" s="24"/>
       <c r="L88" t="s">
         <v>526</v>
       </c>
@@ -4392,7 +4492,7 @@
       <c r="C89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="26"/>
+      <c r="D89" s="24"/>
       <c r="L89" t="s">
         <v>528</v>
       </c>
@@ -4411,7 +4511,7 @@
         <v>189</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L90" t="s">
@@ -4432,7 +4532,7 @@
         <v>191</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L91" t="s">
@@ -4455,7 +4555,7 @@
       <c r="C92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="26"/>
+      <c r="D92" s="24"/>
       <c r="L92" t="s">
         <v>534</v>
       </c>
@@ -4474,7 +4574,7 @@
         <v>195</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L93" t="s">
@@ -4495,7 +4595,7 @@
         <v>197</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L94" t="s">
@@ -4516,7 +4616,7 @@
         <v>200</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L95" t="s">
@@ -4539,7 +4639,7 @@
       <c r="C96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="26"/>
+      <c r="D96" s="24"/>
       <c r="L96" t="s">
         <v>542</v>
       </c>
@@ -4558,7 +4658,7 @@
         <v>206</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="23" t="s">
         <v>574</v>
       </c>
       <c r="L97" t="s">

--- a/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
+++ b/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B409890C-A2EA-4EE6-84BF-5A6D341918BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197DAD4-C163-405B-B201-D28DF3B5A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="599">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -169,9 +169,6 @@
     <t>79.151.502/0001-73</t>
   </si>
   <si>
-    <t>ARMARINHOS_PARANA</t>
-  </si>
-  <si>
     <t>75.281.360/0001-08</t>
   </si>
   <si>
@@ -1754,6 +1751,75 @@
   </si>
   <si>
     <t>ecf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELMA DE ASSIS ROSSATO &amp; CIA LTDA </t>
+  </si>
+  <si>
+    <t>(11/2024 e 12/2024)</t>
+  </si>
+  <si>
+    <t>(12/2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARATY ATACADO E DISTRIBUIDORA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.819.979/0001-12 </t>
+  </si>
+  <si>
+    <t>(04/2024 a 12/2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70223748000139 </t>
+  </si>
+  <si>
+    <t>(01/2024 a 12/2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPP INDUSTRIA TEXTIL LTDA - EM RECUPERACAO JUDICIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETEL EIRELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRASIL ATACADO DA CONSTRUCAO LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSILOS INDUSTRIAL LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIFORMES NEWPRIME LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITAHUM EXPORT COMERCIO DE CEREAIS S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA ADAUTO CARVALHO LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76533629000169 </t>
+  </si>
+  <si>
+    <t>(09/2024 a 12/2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.316.228/0001-34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04244823000113 </t>
+  </si>
+  <si>
+    <t>(10/2024 a 12/2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05946805000146 </t>
+  </si>
+  <si>
+    <t>(04/2024 a12/2024)</t>
+  </si>
+  <si>
+    <t>13163556000140</t>
   </si>
 </sst>
 </file>
@@ -2225,15 +2291,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -2244,18 +2310,18 @@
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="L1" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
@@ -2303,22 +2369,22 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="I3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -2331,22 +2397,22 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L4" t="s">
+        <v>366</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="N4" s="10"/>
     </row>
@@ -2362,19 +2428,19 @@
       </c>
       <c r="D5" s="24"/>
       <c r="G5" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="I5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
+        <v>368</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -2387,22 +2453,22 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -2418,19 +2484,19 @@
       </c>
       <c r="D7" s="24"/>
       <c r="G7" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="I7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -2446,19 +2512,19 @@
       </c>
       <c r="D8" s="24"/>
       <c r="G8" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -2471,22 +2537,22 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L9" t="s">
+        <v>376</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -2502,16 +2568,16 @@
       </c>
       <c r="D10" s="24"/>
       <c r="G10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="10"/>
@@ -2525,19 +2591,19 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="10"/>
@@ -2551,23 +2617,23 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="10"/>
       <c r="L12" t="s">
+        <v>380</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -2580,23 +2646,23 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="10"/>
       <c r="L13" t="s">
+        <v>382</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -2609,23 +2675,23 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="10"/>
       <c r="L14" t="s">
+        <v>384</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="N14" s="10"/>
     </row>
@@ -2638,23 +2704,23 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L15" t="s">
+        <v>386</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="N15" s="10"/>
     </row>
@@ -2667,23 +2733,23 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L16" t="s">
+        <v>388</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="N16" s="10"/>
     </row>
@@ -2699,17 +2765,17 @@
       </c>
       <c r="D17" s="24"/>
       <c r="G17" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>32</v>
@@ -2728,20 +2794,20 @@
       </c>
       <c r="D18" s="24"/>
       <c r="G18" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L18" t="s">
+        <v>391</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="N18" s="10"/>
     </row>
@@ -2757,20 +2823,20 @@
       </c>
       <c r="D19" s="24"/>
       <c r="G19" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L19" t="s">
+        <v>393</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -2786,20 +2852,20 @@
       </c>
       <c r="D20" s="24"/>
       <c r="G20" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L20" t="s">
+        <v>395</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="N20" s="10"/>
     </row>
@@ -2815,20 +2881,20 @@
       </c>
       <c r="D21" s="24"/>
       <c r="G21" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L21" t="s">
+        <v>397</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="N21" s="10"/>
     </row>
@@ -2844,20 +2910,20 @@
       </c>
       <c r="D22" s="24"/>
       <c r="G22" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L22" t="s">
+        <v>399</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="N22" s="10"/>
     </row>
@@ -2873,20 +2939,20 @@
       </c>
       <c r="D23" s="24"/>
       <c r="G23" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L23" t="s">
+        <v>401</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -2899,400 +2965,400 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G24" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="10"/>
       <c r="L24" t="s">
+        <v>403</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G25" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L25" t="s">
+        <v>405</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L26" t="s">
+        <v>407</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="10"/>
       <c r="L27" t="s">
+        <v>409</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="24"/>
       <c r="G28" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="10"/>
       <c r="L28" t="s">
+        <v>411</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L29" t="s">
+        <v>413</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="24"/>
       <c r="G30" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L30" t="s">
+        <v>415</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J32" s="10"/>
       <c r="L32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="24"/>
       <c r="G33" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L33" t="s">
+        <v>419</v>
+      </c>
+      <c r="M33" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="24"/>
       <c r="G34" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L34" t="s">
+        <v>421</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G35" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L35" t="s">
+        <v>423</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J36" s="10"/>
       <c r="L36" t="s">
+        <v>425</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="N36" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J37" s="10"/>
       <c r="L37" t="s">
+        <v>427</v>
+      </c>
+      <c r="M37" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="N37" s="19" t="s">
         <v>33</v>
@@ -3300,30 +3366,30 @@
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G38" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L38" t="s">
+        <v>429</v>
+      </c>
+      <c r="M38" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="N38" s="19" t="s">
         <v>33</v>
@@ -3331,61 +3397,61 @@
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="24"/>
       <c r="G39" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J39" s="10"/>
       <c r="L39" t="s">
+        <v>431</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="N39" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L40" t="s">
+        <v>433</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="N40" s="19" t="s">
         <v>33</v>
@@ -3393,30 +3459,30 @@
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="24"/>
       <c r="G41" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J41" s="10"/>
       <c r="L41" t="s">
+        <v>435</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="N41" s="19" t="s">
         <v>33</v>
@@ -3424,68 +3490,68 @@
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G42" t="s">
+        <v>359</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="19"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G43" t="s">
+        <v>362</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L43" t="s">
+        <v>438</v>
+      </c>
+      <c r="M43" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="N43" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>33</v>
@@ -3493,10 +3559,10 @@
       <c r="D44" s="24"/>
       <c r="I44" s="10"/>
       <c r="L44" t="s">
+        <v>440</v>
+      </c>
+      <c r="M44" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="N44" s="19" t="s">
         <v>33</v>
@@ -3504,84 +3570,84 @@
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L45" t="s">
+        <v>442</v>
+      </c>
+      <c r="M45" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="N45" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H46" s="5"/>
       <c r="L46" t="s">
+        <v>444</v>
+      </c>
+      <c r="M46" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="N46" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L47" t="s">
+        <v>446</v>
+      </c>
+      <c r="M47" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="N47" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L48" t="s">
+        <v>448</v>
+      </c>
+      <c r="M48" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="N48" s="19" t="s">
         <v>33</v>
@@ -3589,20 +3655,20 @@
     </row>
     <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L49" t="s">
+        <v>450</v>
+      </c>
+      <c r="M49" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="N49" s="19" t="s">
         <v>33</v>
@@ -3610,62 +3676,62 @@
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L50" t="s">
+        <v>452</v>
+      </c>
+      <c r="M50" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>454</v>
-      </c>
       <c r="N50" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="24"/>
       <c r="L51" t="s">
+        <v>454</v>
+      </c>
+      <c r="M51" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="N51" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="24"/>
       <c r="L52" t="s">
+        <v>456</v>
+      </c>
+      <c r="M52" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>458</v>
       </c>
       <c r="N52" s="19" t="s">
         <v>33</v>
@@ -3673,20 +3739,20 @@
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L53" t="s">
+        <v>458</v>
+      </c>
+      <c r="M53" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="N53" s="19" t="s">
         <v>33</v>
@@ -3694,17 +3760,17 @@
     </row>
     <row r="54" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="24"/>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="19" t="s">
@@ -3713,23 +3779,23 @@
     </row>
     <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="24"/>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L55" t="s">
+        <v>461</v>
+      </c>
+      <c r="M55" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="N55" s="19" t="s">
         <v>33</v>
@@ -3737,23 +3803,23 @@
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L56" t="s">
+        <v>463</v>
+      </c>
+      <c r="M56" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="N56" s="19" t="s">
         <v>33</v>
@@ -3761,23 +3827,23 @@
     </row>
     <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L57" t="s">
+        <v>465</v>
+      </c>
+      <c r="M57" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="N57" s="19" t="s">
         <v>33</v>
@@ -3785,118 +3851,118 @@
     </row>
     <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D58" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L58" t="s">
+        <v>467</v>
+      </c>
+      <c r="M58" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="N58" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="N59" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="24"/>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L60" t="s">
+        <v>471</v>
+      </c>
+      <c r="M60" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="N60" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L61" t="s">
+        <v>473</v>
+      </c>
+      <c r="M61" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="N61" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="24"/>
       <c r="G62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s">
+        <v>475</v>
+      </c>
+      <c r="M62" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>33</v>
@@ -3904,23 +3970,23 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L63" t="s">
+        <v>477</v>
+      </c>
+      <c r="M63" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>33</v>
@@ -3928,121 +3994,121 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="C64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s">
+        <v>479</v>
+      </c>
+      <c r="M64" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="N64" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L65" t="s">
+        <v>481</v>
+      </c>
+      <c r="M65" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="N65" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L66" t="s">
+        <v>483</v>
+      </c>
+      <c r="M66" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="N66" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="24"/>
       <c r="G67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L67" t="s">
+        <v>485</v>
+      </c>
+      <c r="M67" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="N67" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="24"/>
       <c r="G68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L68" t="s">
+        <v>487</v>
+      </c>
+      <c r="M68" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>33</v>
@@ -4050,71 +4116,71 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L69" t="s">
+        <v>489</v>
+      </c>
+      <c r="M69" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="M69" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="N69" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="24"/>
       <c r="G70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L70" t="s">
+        <v>491</v>
+      </c>
+      <c r="M70" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="M70" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="N70" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L71" t="s">
+        <v>493</v>
+      </c>
+      <c r="M71" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>33</v>
@@ -4122,47 +4188,47 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L72" t="s">
+        <v>495</v>
+      </c>
+      <c r="M72" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="M72" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="N72" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L73" t="s">
+        <v>497</v>
+      </c>
+      <c r="M73" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>33</v>
@@ -4170,23 +4236,23 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L74" t="s">
+        <v>499</v>
+      </c>
+      <c r="M74" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>33</v>
@@ -4194,17 +4260,17 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="24"/>
       <c r="L75" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="10" t="s">
@@ -4213,144 +4279,144 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="24"/>
       <c r="L76" t="s">
+        <v>502</v>
+      </c>
+      <c r="M76" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="N76" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="24"/>
       <c r="L77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="24"/>
       <c r="L78" t="s">
+        <v>505</v>
+      </c>
+      <c r="M78" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>507</v>
-      </c>
       <c r="N78" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="24"/>
       <c r="L79" t="s">
+        <v>507</v>
+      </c>
+      <c r="M79" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>509</v>
-      </c>
       <c r="N79" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="24"/>
       <c r="L80" t="s">
+        <v>509</v>
+      </c>
+      <c r="M80" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>511</v>
-      </c>
       <c r="N80" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="24"/>
       <c r="L81" t="s">
+        <v>511</v>
+      </c>
+      <c r="M81" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>513</v>
-      </c>
       <c r="N81" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="24"/>
       <c r="L82" t="s">
+        <v>513</v>
+      </c>
+      <c r="M82" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>33</v>
@@ -4358,20 +4424,20 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="24"/>
       <c r="L83" t="s">
+        <v>515</v>
+      </c>
+      <c r="M83" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>33</v>
@@ -4379,20 +4445,20 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L84" t="s">
+        <v>517</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="N84" s="10" t="s">
         <v>33</v>
@@ -4400,20 +4466,20 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="24"/>
       <c r="L85" t="s">
+        <v>519</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>33</v>
@@ -4421,20 +4487,20 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="24"/>
       <c r="L86" t="s">
+        <v>521</v>
+      </c>
+      <c r="M86" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="N86" s="10" t="s">
         <v>33</v>
@@ -4442,20 +4508,20 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>183</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="24"/>
       <c r="L87" t="s">
+        <v>523</v>
+      </c>
+      <c r="M87" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>33</v>
@@ -4463,104 +4529,104 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="24"/>
       <c r="L88" t="s">
+        <v>525</v>
+      </c>
+      <c r="M88" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="N88" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="24"/>
       <c r="L89" t="s">
+        <v>527</v>
+      </c>
+      <c r="M89" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="N89" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L90" t="s">
+        <v>529</v>
+      </c>
+      <c r="M90" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="N90" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L91" t="s">
+        <v>531</v>
+      </c>
+      <c r="M91" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="M91" s="5" t="s">
-        <v>533</v>
-      </c>
       <c r="N91" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="24"/>
       <c r="L92" t="s">
+        <v>533</v>
+      </c>
+      <c r="M92" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="N92" s="10" t="s">
         <v>33</v>
@@ -4568,41 +4634,41 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L93" t="s">
+        <v>535</v>
+      </c>
+      <c r="M93" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>537</v>
-      </c>
       <c r="N93" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L94" t="s">
+        <v>537</v>
+      </c>
+      <c r="M94" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="N94" s="10" t="s">
         <v>33</v>
@@ -4610,59 +4676,59 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L95" t="s">
+        <v>539</v>
+      </c>
+      <c r="M95" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>541</v>
-      </c>
       <c r="N95" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="24"/>
       <c r="L96" t="s">
+        <v>541</v>
+      </c>
+      <c r="M96" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>543</v>
-      </c>
       <c r="N96" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L97" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="10" t="s">
@@ -4671,21 +4737,21 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L98" t="s">
+        <v>544</v>
+      </c>
+      <c r="M98" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>546</v>
-      </c>
       <c r="N98" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N99" s="10" t="s">
         <v>33</v>
@@ -4693,133 +4759,207 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L100" t="s">
+        <v>547</v>
+      </c>
+      <c r="M100" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="N100" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="N100" s="10" t="s">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="L101" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L101" t="s">
+      <c r="M101" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="N101" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L102" t="s">
         <v>552</v>
       </c>
-      <c r="N101" s="10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L102" t="s">
+      <c r="M102" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M102" s="5" t="s">
-        <v>554</v>
-      </c>
       <c r="N102" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C103" s="1"/>
+      <c r="A103" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="D103" s="20"/>
       <c r="L103" t="s">
+        <v>554</v>
+      </c>
+      <c r="M103" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="M103" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="N103" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C104" s="1"/>
+      <c r="A104" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="D104" s="20"/>
       <c r="L104" t="s">
+        <v>556</v>
+      </c>
+      <c r="M104" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="N104" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C105" s="1"/>
+      <c r="A105" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="D105" s="20"/>
       <c r="L105" t="s">
+        <v>558</v>
+      </c>
+      <c r="M105" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="N105" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L106" t="s">
         <v>560</v>
       </c>
-      <c r="N105" s="10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C106" s="1"/>
-      <c r="L106" t="s">
+      <c r="M106" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="M106" s="5" t="s">
-        <v>562</v>
-      </c>
       <c r="N106" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C107" s="1"/>
+      <c r="A107" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="D107" s="20"/>
       <c r="L107" t="s">
+        <v>562</v>
+      </c>
+      <c r="M107" t="s">
         <v>563</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L108" t="s">
         <v>564</v>
       </c>
-      <c r="N107" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C108" s="1"/>
-      <c r="L108" t="s">
+      <c r="M108" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="M108" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="N108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C109" s="1"/>
+      <c r="A109" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>578</v>
+      </c>
       <c r="D109" s="20"/>
       <c r="L109" t="s">
+        <v>566</v>
+      </c>
+      <c r="M109" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M109" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="N109" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
       <c r="L110" t="s">
+        <v>568</v>
+      </c>
+      <c r="M110" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="N110" t="s">
         <v>33</v>
@@ -4829,174 +4969,174 @@
       <c r="C111" s="22"/>
       <c r="D111" s="18"/>
       <c r="L111" t="s">
+        <v>209</v>
+      </c>
+      <c r="M111" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
       <c r="L112" t="s">
+        <v>211</v>
+      </c>
+      <c r="M112" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="113" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
       <c r="L113" t="s">
+        <v>213</v>
+      </c>
+      <c r="M113" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="114" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
       <c r="L114" t="s">
+        <v>215</v>
+      </c>
+      <c r="M114" t="s">
         <v>216</v>
-      </c>
-      <c r="M114" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="115" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
       <c r="D115" s="20"/>
       <c r="L115" t="s">
+        <v>217</v>
+      </c>
+      <c r="M115" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="116" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
       <c r="D116" s="20"/>
       <c r="L116" t="s">
+        <v>219</v>
+      </c>
+      <c r="M116" t="s">
         <v>220</v>
-      </c>
-      <c r="M116" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="117" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
       <c r="D117" s="20"/>
       <c r="L117" t="s">
+        <v>221</v>
+      </c>
+      <c r="M117" t="s">
         <v>222</v>
-      </c>
-      <c r="M117" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="118" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
       <c r="D118" s="20"/>
       <c r="L118" t="s">
+        <v>223</v>
+      </c>
+      <c r="M118" t="s">
         <v>224</v>
-      </c>
-      <c r="M118" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="119" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
       <c r="D119" s="20"/>
       <c r="L119" t="s">
+        <v>225</v>
+      </c>
+      <c r="M119" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="120" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
       <c r="D120" s="20"/>
       <c r="L120" t="s">
+        <v>227</v>
+      </c>
+      <c r="M120" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="121" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
       <c r="D121" s="20"/>
       <c r="L121" t="s">
+        <v>229</v>
+      </c>
+      <c r="M121" t="s">
         <v>230</v>
-      </c>
-      <c r="M121" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="122" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
       <c r="D122" s="20"/>
       <c r="L122" t="s">
+        <v>231</v>
+      </c>
+      <c r="M122" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="123" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
       <c r="D123" s="20"/>
       <c r="L123" t="s">
+        <v>233</v>
+      </c>
+      <c r="M123" t="s">
         <v>234</v>
-      </c>
-      <c r="M123" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="124" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
       <c r="D124" s="20"/>
       <c r="L124" t="s">
+        <v>235</v>
+      </c>
+      <c r="M124" t="s">
         <v>236</v>
-      </c>
-      <c r="M124" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="125" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
       <c r="D125" s="20"/>
       <c r="L125" t="s">
+        <v>237</v>
+      </c>
+      <c r="M125" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="126" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
       <c r="D126" s="20"/>
       <c r="L126" t="s">
+        <v>239</v>
+      </c>
+      <c r="M126" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="127" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
       <c r="D127" s="20"/>
       <c r="L127" t="s">
+        <v>241</v>
+      </c>
+      <c r="M127" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="M127" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="128" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C128" s="1"/>
       <c r="D128" s="20"/>
       <c r="L128" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M128" s="5"/>
     </row>
@@ -5004,173 +5144,173 @@
       <c r="C129" s="1"/>
       <c r="D129" s="20"/>
       <c r="L129" t="s">
+        <v>244</v>
+      </c>
+      <c r="M129" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="130" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C130" s="1"/>
       <c r="D130" s="20"/>
       <c r="L130" t="s">
+        <v>246</v>
+      </c>
+      <c r="M130" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="131" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C131" s="1"/>
       <c r="D131" s="20"/>
       <c r="L131" t="s">
+        <v>248</v>
+      </c>
+      <c r="M131" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="M131" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="132" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C132" s="1"/>
       <c r="L132" t="s">
+        <v>250</v>
+      </c>
+      <c r="M132" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="M132" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="133" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C133" s="1"/>
       <c r="D133" s="20"/>
       <c r="L133" t="s">
+        <v>252</v>
+      </c>
+      <c r="M133" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="M133" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="134" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C134" s="1"/>
       <c r="D134" s="20"/>
       <c r="L134" t="s">
+        <v>254</v>
+      </c>
+      <c r="M134" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="M134" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="135" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C135" s="1"/>
       <c r="D135" s="20"/>
       <c r="L135" t="s">
+        <v>256</v>
+      </c>
+      <c r="M135" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="M135" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="136" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C136" s="1"/>
       <c r="D136" s="20"/>
       <c r="L136" t="s">
+        <v>258</v>
+      </c>
+      <c r="M136" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="M136" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="137" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C137" s="1"/>
       <c r="D137" s="20"/>
       <c r="L137" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M137" s="5"/>
     </row>
     <row r="138" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D138" s="20"/>
       <c r="L138" t="s">
+        <v>261</v>
+      </c>
+      <c r="M138" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="139" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D139" s="20"/>
       <c r="L139" t="s">
+        <v>263</v>
+      </c>
+      <c r="M139" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="M139" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="140" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D140" s="20"/>
       <c r="L140" t="s">
+        <v>265</v>
+      </c>
+      <c r="M140" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="M140" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="141" spans="3:13" x14ac:dyDescent="0.3">
       <c r="L141" t="s">
+        <v>267</v>
+      </c>
+      <c r="M141" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="M141" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D142" s="20"/>
       <c r="L142" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M142" s="5"/>
     </row>
     <row r="143" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D143" s="20"/>
       <c r="L143" t="s">
+        <v>270</v>
+      </c>
+      <c r="M143" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="M143" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="144" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D144" s="20"/>
       <c r="L144" t="s">
+        <v>272</v>
+      </c>
+      <c r="M144" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="M144" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="145" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D145" s="20"/>
       <c r="L145" t="s">
+        <v>274</v>
+      </c>
+      <c r="M145" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="M145" s="5" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="146" spans="3:13" x14ac:dyDescent="0.3">
       <c r="L146" t="s">
+        <v>276</v>
+      </c>
+      <c r="M146" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="147" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D147" s="20"/>
       <c r="L147" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="M147" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="M147" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="148" spans="3:13" x14ac:dyDescent="0.3">

--- a/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
+++ b/robo_bx/BasesNovas -- COMPARTILHADA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.alvise\Desktop\VSCODE-ROBOS\robo_bx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197DAD4-C163-405B-B201-D28DF3B5A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ECD321-E4B3-4E64-A95C-14704441C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2670" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21585" yWindow="3315" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="599">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -1771,9 +1771,6 @@
     <t>(04/2024 a 12/2024)</t>
   </si>
   <si>
-    <t xml:space="preserve">70223748000139 </t>
-  </si>
-  <si>
     <t>(01/2024 a 12/2024)</t>
   </si>
   <si>
@@ -1820,6 +1817,9 @@
   </si>
   <si>
     <t>13163556000140</t>
+  </si>
+  <si>
+    <t>08.072.649/0001-20</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1880,6 +1880,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,7 +1917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1975,12 +1981,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2291,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4769,13 +4790,13 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="27" t="s">
         <v>581</v>
       </c>
       <c r="L101" t="s">
@@ -4789,14 +4810,14 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C102" s="27" t="s">
         <v>582</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>583</v>
       </c>
       <c r="L102" t="s">
         <v>552</v>
@@ -4809,14 +4830,14 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="C103" s="30" t="s">
         <v>596</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="D103" s="20"/>
       <c r="L103" t="s">
@@ -4830,14 +4851,14 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="C104" s="30" t="s">
         <v>594</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="D104" s="20"/>
       <c r="L104" t="s">
@@ -4851,14 +4872,14 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>583</v>
+      <c r="A105" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>582</v>
       </c>
       <c r="D105" s="20"/>
       <c r="L105" t="s">
@@ -4872,14 +4893,14 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="C106" s="30" t="s">
         <v>591</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="L106" t="s">
         <v>560</v>
@@ -4892,16 +4913,18 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D107" s="20"/>
+      <c r="A107" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="L107" t="s">
         <v>562</v>
       </c>
@@ -4913,13 +4936,13 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="B108" s="5" t="s">
+      <c r="A108" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="B108" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="30" t="s">
         <v>577</v>
       </c>
       <c r="L108" t="s">
@@ -4933,13 +4956,13 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="A109" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="C109" s="28" t="s">
         <v>578</v>
       </c>
       <c r="D109" s="20"/>
